--- a/n = 10, chain reward = 3000, first method/BestAnswer0.xlsx
+++ b/n = 10, chain reward = 3000, first method/BestAnswer0.xlsx
@@ -16,6 +16,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chain 6" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chain 7" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cycle 1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cycle 2" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,7 +437,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>28700</v>
+        <v>34400</v>
       </c>
     </row>
   </sheetData>
@@ -444,13 +445,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,19 +492,34 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Richard Lyons</t>
+          <t>Mary Kissler</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Adam Smith</t>
+          <t>Larry Burton</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>5000</v>
       </c>
-      <c r="E2" t="n">
-        <v>4</v>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Irene Gallegos</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sarah Tamura</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -511,13 +527,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,12 +574,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hannah Fink</t>
+          <t>Antonio Sargent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Michael Doyle</t>
+          <t>David Robertson</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -579,11 +595,99 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul Studer</t>
+          <t>Juan Skinner</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Timothy Davis</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Pair</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PatientName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>DonorName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Compatibility</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hannah Fink</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Nick Nwachukwu</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Rosemary Osteen</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Earl Himes</t>
         </is>
       </c>
@@ -591,28 +695,7 @@
         <v>5000</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Patricia Collette</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Robert Davison</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -667,19 +750,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lisa Newell</t>
+          <t>Richard Lyons</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Diane Manning</t>
+          <t>Lucinda Peter</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>5000</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -734,19 +817,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mark Scott</t>
+          <t>Patricia Collette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Steven Kling</t>
+          <t>Cynthia Franklin</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>5000</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -760,7 +843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,40 +884,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Elliot Mcphatter</t>
+          <t>Mark Scott</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Florence Vanduser</t>
+          <t>Jill Dennehy</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>5000</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Silvia Evans</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Jose Harris</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -889,12 +951,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antonio Sargent</t>
+          <t>Eric Storey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cynthia Franklin</t>
+          <t>Florence Vanduser</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -910,19 +972,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rosemary Osteen</t>
+          <t>Silvia Evans</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Timothy Davis</t>
+          <t>Allan Lomanto</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>5000</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +1044,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Michele Smith</t>
+          <t>Steven Kling</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -998,7 +1060,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Juan Skinner</t>
+          <t>Lisa Newell</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1010,7 +1072,7 @@
         <v>5000</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1065,12 +1127,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mary Kissler</t>
+          <t>Elliot Mcphatter</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Larry Burton</t>
+          <t>Robert Davison</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -1083,12 +1145,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Irene Gallegos</t>
+          <t>Paul Studer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sarah Tamura</t>
+          <t>Jose Harris</t>
         </is>
       </c>
       <c r="D3" t="n">
